--- a/biology/Zoologie/Alfred_Otto_Herz/Alfred_Otto_Herz.xlsx
+++ b/biology/Zoologie/Alfred_Otto_Herz/Alfred_Otto_Herz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Otto Herz, né le 14 octobre 1856 à Hoyerswerda et mort le 12 juillet 1905, est un explorateur et entomologiste allemand, spécialiste des lépidoptères et des coléoptères[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Otto Herz, né le 14 octobre 1856 à Hoyerswerda et mort le 12 juillet 1905, est un explorateur et entomologiste allemand, spécialiste des lépidoptères et des coléoptères.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La société Otto Staudinger - Andreas Bang-Haas (en) à Dresde l'engage pour collecter et préparer des insectes pour eux.
-Otto Herz prend ainsi part à leur service à des expéditions entomologiques en Transcaucasie, à Boukhara, en Perse et au Kamtchatka. En Yakoutie, il participe en 1901 à une expédition de collecte de mammouths[2] sur la Berezovka[3]. Il voyage aussi en Chine, en Corée, au Japon, à Hainan et au Siam, lors d'expéditions en partie financées par Nicholas Mikhailovich Romanoff qui a également acheté du matériel directement à Herz ou via Staundinger[4].
+Otto Herz prend ainsi part à leur service à des expéditions entomologiques en Transcaucasie, à Boukhara, en Perse et au Kamtchatka. En Yakoutie, il participe en 1901 à une expédition de collecte de mammouths sur la Berezovka. Il voyage aussi en Chine, en Corée, au Japon, à Hainan et au Siam, lors d'expéditions en partie financées par Nicholas Mikhailovich Romanoff qui a également acheté du matériel directement à Herz ou via Staundinger.
 De nombreux lépidoptères collectés par Herz ont été décrits par Sergei Alphéraky (en). Ces insectes collectés se trouvent au Musée zoologique de Saint-Pétersbourg (y compris les insectes Romanoff).
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pungtungia herzi (en) Herzenstein (1892), une espèce de poissons de la famille des Cyprinidae, a été nommé en son honneur, Herz ayant été le premier à le collecter[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pungtungia herzi (en) Herzenstein (1892), une espèce de poissons de la famille des Cyprinidae, a été nommé en son honneur, Herz ayant été le premier à le collecter.
 </t>
         </is>
       </c>
